--- a/Тест-кейсы.xlsx
+++ b/Тест-кейсы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Documents/GitHub/My_First_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236359A0-BB72-3242-B1A6-679B3C3D7B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90EC72-7EBD-1B4E-9351-B1E4E175E441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Общее количество тестов</t>
+  </si>
+  <si>
+    <t>Еще какой-то тест</t>
+  </si>
+  <si>
+    <t>да</t>
   </si>
 </sst>
 </file>
@@ -877,7 +883,7 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1046,9 +1052,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
@@ -3202,7 +3214,7 @@
       </c>
       <c r="E78" s="30">
         <f>COUNTA(D4:D76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>

--- a/Тест-кейсы.xlsx
+++ b/Тест-кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Documents/GitHub/My_First_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90EC72-7EBD-1B4E-9351-B1E4E175E441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AEDD07-C192-8743-92BF-D93FE452621A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>да</t>
+  </si>
+  <si>
+    <t>И еще</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
@@ -883,7 +889,7 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1089,9 +1095,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
@@ -3214,7 +3226,7 @@
       </c>
       <c r="E78" s="30">
         <f>COUNTA(D4:D76)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>

--- a/Тест-кейсы.xlsx
+++ b/Тест-кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Documents/GitHub/My_First_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AEDD07-C192-8743-92BF-D93FE452621A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D121494-858E-3E43-9D8D-183D1D7ECD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>№</t>
   </si>
@@ -50,60 +50,357 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Вход</t>
+    <t>Общее количество тестов</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка авторизации через Email и пароль </t>
+    <t>Вход и Регистрация</t>
   </si>
   <si>
-    <t xml:space="preserve">Перейти на сайт https://www.test.ru;
-Нажать "Авторизация";
-Ввести Email и пароль (см данные);
-Нажать кнопку "войти".
+    <t>Регистрация на сайте</t>
+  </si>
+  <si>
+    <t>Регистрация успешно осуществлена, пользователь перенаправлен в личный кабинет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя - Иван
+Фамилия - Иванов
+Логин - ivanov2086
+Пароль - 123ivanov321
+e-mail - ivanov2086@mail.ru
+ </t>
+  </si>
+  <si>
+    <t>Авторизация на сайте через форму входа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вход успешно осуществлен, пользователь
+перенаправлен в личный кабинет.
 </t>
   </si>
   <si>
-    <t>Вход успешно осуществлен, пользователь перенаправлен в личный кабинет.</t>
-  </si>
-  <si>
-    <t>"test@test.ru" 
- password</t>
-  </si>
-  <si>
-    <t>Проверка регистрации с пустыми полями</t>
-  </si>
-  <si>
-    <t>Перейти на сайт https://www.test.ru;
-Нажать кнопку "зарегистрироваться";
-Нажать "Подтвердить регистрацию".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регистрация не осуществлена.
-Необходимые для заполнения поля подсветились красным. 
-Под необходимыми для заполнения полями появились тексты ошибок. Ошибки внятные и читаемые.
+    <t xml:space="preserve">e-mail - ivanov2086@mail.ru 
+Пароль - 123ivanov321
 </t>
   </si>
   <si>
-    <t>Общее количество тестов</t>
+    <t>Проверка функции восстановления пароля</t>
   </si>
   <si>
-    <t>Еще какой-то тест</t>
+    <t xml:space="preserve">В открывшемся окне получено сообщение "Контрольная строка, а также ваши регистрационные данные были высланы по e-mail".
+</t>
   </si>
   <si>
-    <t>да</t>
+    <t>Регистрация с использованием логина менее трех символов</t>
   </si>
   <si>
-    <t>И еще</t>
+    <t>Имя - Иван
+Фамилия - Иванов
+Логин - iv
+Пароль - 123ivanov321
+e-mail - ivanov2086@mail.ru</t>
   </si>
   <si>
-    <t>нет</t>
+    <t>Регистрация отклонена, пользователь получил
+сообщение "Логин должен быть не менее 3-х
+символов".</t>
+  </si>
+  <si>
+    <t>Регистрация с введением пароля менее 
+6 символов</t>
+  </si>
+  <si>
+    <t>Имя - Иван
+Фамилия - Иванов
+Логин - ivanov2086
+Пароль - 123iv
+e-mail - ivanov2086@mail.ru</t>
+  </si>
+  <si>
+    <t>Регистрация отклонена, пользователь получил
+сообщение "Пароль должен содержать не 
+менее 6 символов"</t>
+  </si>
+  <si>
+    <t>Регистрация без использования капчи</t>
+  </si>
+  <si>
+    <t>Имя - Иван
+Фамилия - Иванов
+Логин - ivanov2086
+Пароль - 123ivanov321
+e-mail - ivanov2086@mail.ru</t>
+  </si>
+  <si>
+    <t>Регистрация отклонена, пользователь получил
+сообщение "Вы не прошли проверку"</t>
+  </si>
+  <si>
+    <t>Регистрация без заполнения поля e-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя - Иван
+Фамилия - Иванов
+Логин - ivanov2086
+Пароль - 123ivanov321
+</t>
+  </si>
+  <si>
+    <t>Вход с введением некорректных данных</t>
+  </si>
+  <si>
+    <t>Регистрация отклонена, пользователь получил
+сообщение "Поле e-mail обязательно для
+заполнения"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопку "Личный кабинет";
+Ввести e-mail и пароль (см данные);
+Нажать кнопку "Войти".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопку "Личный кабинет";
+Во всплывающем окне нажать кнопку "Забыли пароль?"
+В открывшемся окне ввести логин ivanov2086;
+Нажать кнопку "Выслать";
+</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Личный кабинет";
+Ввести e-mail и пароль (см данные);
+Нажать кнопку "Войти".</t>
+  </si>
+  <si>
+    <t>Логин - ivanov
+Пароль - 123ivanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вход отклонен, пользователь получил 
+сообщение "Неверный логин или пароль"
+</t>
+  </si>
+  <si>
+    <t>Вход без заполнения поля "Пароль"</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Личный кабинет";
+Ввести e-mail (см данные);
+Поле "Пароль" оставить незаполненным;
+Нажать кнопку "Войти".</t>
+  </si>
+  <si>
+    <t>e-mail - ivanov2086@mail.ru</t>
+  </si>
+  <si>
+    <t>Вход отклонен, пользователь получил 
+сообщение "Неверный логин или пароль"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизация без регистрации
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перейти на сайт https://www.pitergsm.ru;
+Нажать кнопку "Регистрация";
+Ввести имя, фамилия, логин, пароль, подтверждение пароля, e-mail (см данные);
+В поле ввода капчи нажать на квадрат рядом с надписью "Я не робот";
+Нажать кнопку "Регистрация".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопку "Регистрация";
+Ввести имя, фамилия, логин, пароль, подтверждение пароля, e-mail (см данные);
+В поле ввода капчи нажать на квадрат рядом с надписью "Я не робот";
+Нажать кнопку "Регистрация".
+</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Регистрация";
+Ввести имя, фамилия, логин, пароль, подтверждение пароля, e-mail (см данные);
+В поле ввода капчи нажать на квадрат рядом с надписью "Я не робот";
+Нажать кнопку "Регистрация".</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Регистрация";
+Ввести имя, фамилия, логин, пароль, подтверждение пароля, e-mail (см данные);
+В поле ввода капчи не нажимать на квадрат рядом с надписью "Я не робот";
+Нажать кнопку "Регистрация".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопку "Регистрация";
+Ввести имя, фамилия, логин, пароль, подтверждение пароля (см данные);
+Поле e-mail оставить незаполненным
+В поле ввода капчи нажать на квадрат рядом с надписью "Я не робот";
+Нажать кнопку "Регистрация".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопку "Личный кабинет";
+Нажать кнопку "Войти".
+</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>Проверка добавления товара в корзину</t>
+  </si>
+  <si>
+    <t>Товар добавился и отображается в "Корзине".</t>
+  </si>
+  <si>
+    <t>Проверка удаления товара из корзины</t>
+  </si>
+  <si>
+    <t>Перейти на сайт https://www.pitergsm.ru;
+Нажать кнопку "Телефоны";
+Выбрать "Смартфон Samsung Galaxy A51";
+Нажать кнопку "Купить";
+Во всплывающем окне нажать кнопку "В корзину".</t>
+  </si>
+  <si>
+    <t>См данные;
+Нажать кнопку "Корзина";
+Нажать кнопку "Удалить".</t>
+  </si>
+  <si>
+    <t>Товар удалился из корзины, пользователь
+получил сообщение "Ваша корзина пуста".</t>
+  </si>
+  <si>
+    <t>Добавление нескольких товаров в
+корзину</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Телефоны";
+Выбрать "Смартфон Samsung Galaxy A51"(белый);
+Нажать кнопку "Купить";
+Во всплывающем окне нажать кнопку "В корзину";
+Нажать кнопку "Телефоны";
+Выбрать "Смартфон Samsung Galaxy A51"(черный);
+Нажать кнопку "Купить";
+Во всплывающем окне нажать кнопку "В корзину";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В корзине отобразились добавленные товары
+</t>
+  </si>
+  <si>
+    <t>Сохранение товаров в корзине после выхода
+для продолжения покупок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">См данные;
+Нажать кнопку "Продолжить покупки";
+Нажать кнопку "Доставка и оплата";
+Нажать кнопку "Корзина"
+</t>
+  </si>
+  <si>
+    <t>Увеличение количества товаров
+непосредственно в корзине</t>
+  </si>
+  <si>
+    <t>См данные;</t>
+  </si>
+  <si>
+    <t>См данные;
+Нажать кнопку со знаком "+" в строке с наименованием
+товара.</t>
+  </si>
+  <si>
+    <t>Сохранение товаров в корзине после ухода с
+сайта магазина</t>
+  </si>
+  <si>
+    <t>См данные;
+Перейти на сайт https://www.yandex.ru;
+Перейти на сайт https://www.pitergsm.ru;
+Нажать на кнопку "Корзина"</t>
+  </si>
+  <si>
+    <t>Проверка изменения суммы оплаты при добавлении товара в корзину</t>
+  </si>
+  <si>
+    <t>Изменение суммы оплаты при добавлении
+нескольких товаров в корзину</t>
+  </si>
+  <si>
+    <t>После добавления в корзину товара
+"Смартфон Samsung Galaxy A51"(черный),
+в строке "К оплате" цифра "19990" должна
+поменяться на цифру "39280"</t>
+  </si>
+  <si>
+    <t>Изменение суммы оплаты увеличении 
+количества товаров в корзине</t>
+  </si>
+  <si>
+    <t>В строке "К оплате" цифра 19990" должна
+поменяться на цифру "39980".</t>
+  </si>
+  <si>
+    <t>Изменение суммы оплаты уменьшении 
+количества товаров в корзине</t>
+  </si>
+  <si>
+    <t>См данные;
+Нажать кнопку со знаком "-" в строке с наименованием
+товара.</t>
+  </si>
+  <si>
+    <t>В строке "К оплате" цифра 39980" должна
+поменяться на цифру "19990".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перейти на сайт https://www.pitergsm.ru;
+Нажать кнопку "Телефоны";
+Выбрать "Смартфон Samsung Galaxy A51(белый)";
+Нажать кнопку "Купить";
+Во всплывающем окне нажать кнопку "В корзину".
+</t>
+  </si>
+  <si>
+    <t>Перейти на сайт https://www.pitergsm.ru;
+Нажать кнопку "Телефоны";
+Выбрать "Смартфон Samsung Galaxy A51(белый)";
+Нажать кнопку "Купить";
+Во всплывающем окне нажать кнопку "В корзину".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В корзине отображается товар
+"Смартфон Samsung Galaxy A51(белый)".
+</t>
+  </si>
+  <si>
+    <t>В корзине отображается товар
+"Смартфон Samsung Galaxy A51(белый)".</t>
+  </si>
+  <si>
+    <t>В корзине отображается товар
+"Смартфон Samsung Galaxy A51(белый)", в строке
+"к оплате" отображается цифра 19990</t>
+  </si>
+  <si>
+    <t>Перейти на сайт https://www.pitergsm.ru;
+Нажать кнопку "Телефоны";
+Выбрать "Смартфон Samsung Galaxy A51(белый)";
+Нажать кнопку "Купить";
+Во всплывающем окне нажать кнопку "В корзину";
+Нажать кнопку со знаком "+" в строке с наименованием
+товара.</t>
+  </si>
+  <si>
+    <t>В поле отображения количества товаров цифра
+"1" поменялась на "2", в строке "К оплате"
+отобразилась цифра "39980".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,6 +438,19 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -472,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,6 +882,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -900,7 +1216,7 @@
     <col min="4" max="4" width="39.33203125" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" customWidth="1"/>
     <col min="6" max="6" width="41.1640625" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" customWidth="1"/>
     <col min="8" max="27" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -980,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
+      <c r="E3" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
@@ -1025,12 +1341,14 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1059,13 +1377,13 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="12"/>
@@ -1096,15 +1414,17 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
@@ -1132,10 +1452,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
@@ -1163,10 +1491,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1194,10 +1530,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1225,10 +1569,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1256,10 +1608,18 @@
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1281,15 +1641,21 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
@@ -1312,15 +1678,23 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
@@ -1343,16 +1717,24 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1374,15 +1756,21 @@
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>13</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="16"/>
@@ -1405,16 +1793,24 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1442,10 +1838,18 @@
         <v>15</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1473,10 +1877,18 @@
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -1504,9 +1916,15 @@
         <v>17</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>74</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
@@ -1529,16 +1947,24 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>18</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1566,10 +1992,18 @@
         <v>19</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1597,10 +2031,18 @@
         <v>20</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -3222,11 +3664,11 @@
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E78" s="30">
         <f>COUNTA(D4:D76)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
